--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2417913.085755574</v>
+        <v>-2420964.329709414</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8656875.781858984</v>
+        <v>8656875.781858983</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>294.8697684399061</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>145.9540087152242</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>53.2626747030564</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.17579562641237</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>130.4850290902706</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>40.56696428347033</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>80.97347500494082</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>359.1105101648723</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>120.6931758042659</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.004478340614</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>261.9025067912345</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1585,16 +1585,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>270.3808622796248</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.5536972543417</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>113.329364434183</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1822,16 +1822,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668612</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292609</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247749</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734099625</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>24.28294625218627</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004729</v>
+        <v>88.9321526700474</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>171.973198915489</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292609</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247749</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734099625</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.9321526700474</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2293,19 +2293,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785977</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>174.3242343544794</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C25" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>120.470367422281</v>
       </c>
       <c r="I25" t="n">
-        <v>72.06777291779838</v>
+        <v>41.68707456766082</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>64.64750517800752</v>
       </c>
       <c r="S25" t="n">
-        <v>56.78901106068298</v>
+        <v>165.4843778394021</v>
       </c>
       <c r="T25" t="n">
-        <v>195.2643017841295</v>
+        <v>195.2643017841294</v>
       </c>
       <c r="U25" t="n">
         <v>261.9271907135731</v>
       </c>
       <c r="V25" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W25" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X25" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y25" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T28" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969982</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652575</v>
+        <v>56.98118882652568</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096042</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4135,10 +4135,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4147,13 +4147,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652558</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972039</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1274.508812171033</v>
+        <v>1314.38774159731</v>
       </c>
       <c r="C2" t="n">
-        <v>976.6605612216329</v>
+        <v>945.4252246568988</v>
       </c>
       <c r="D2" t="n">
-        <v>618.3948626148824</v>
+        <v>587.1595260501483</v>
       </c>
       <c r="E2" t="n">
-        <v>618.3948626148824</v>
+        <v>201.3712734519041</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2424.713742472046</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.713742472046</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.713742472046</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.247984210966</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y2" t="n">
-        <v>1661.108652235155</v>
+        <v>1314.38774159731</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4422,7 +4422,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2214.475051914318</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>2214.475051914318</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>2214.475051914318</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2214.475051914318</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2067.585104416408</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2067.585104416408</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2067.585104416408</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2067.585104416408</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2442.464602812336</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W4" t="n">
-        <v>2442.464602812336</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>2214.475051914318</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>2214.475051914318</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>923.9266662611112</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>512.9407614715037</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2382.509002921313</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2382.509002921313</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2382.509002921313</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.509002921313</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>2382.509002921313</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4653,34 +4653,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
         <v>204.0596212327002</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>285.8510101265798</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1637.643464250441</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,10 +4802,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2575.236792226035</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2321.475006864126</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1990.412119520555</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1637.643464250441</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1637.643464250441</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>1637.643464250441</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629043</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5030,7 +5030,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5069,16 +5069,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.8310435707792</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8948606428723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5215,34 +5215,34 @@
         <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952191</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104706</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862234</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689061</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258587</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.95764238423</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1163.95764238423</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>1163.95764238423</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X13" t="n">
-        <v>935.9680914862126</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.479508401019</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5279,25 +5279,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5309,13 +5309,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089887</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5367,40 +5367,40 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>804.8364680322012</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>804.8364680322012</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1752.038903373158</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T16" t="n">
-        <v>1530.272287942684</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1241.169421068328</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>986.4849328624409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>986.4849328624409</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>986.4849328624409</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>986.4849328624409</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5498,43 +5498,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074201</v>
+        <v>451.8458144277726</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972667</v>
+        <v>1070.832524924165</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750622</v>
+        <v>1521.866738172573</v>
       </c>
       <c r="M17" t="n">
-        <v>2064.476622800999</v>
+        <v>2055.398642844497</v>
       </c>
       <c r="N17" t="n">
-        <v>3044.228895027647</v>
+        <v>2602.177459903279</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320233</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N18" t="n">
         <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
@@ -5625,7 +5625,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>217.4149401676109</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C19" t="n">
-        <v>217.4149401676109</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>217.4149401676109</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>217.4149401676109</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>217.4149401676109</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>217.4149401676109</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442065</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927027</v>
+        <v>661.230648292702</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518528</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.51300886223</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689059</v>
+        <v>1674.827124689056</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258585</v>
+        <v>1453.060509258582</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384226</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783413</v>
+        <v>909.273154178339</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413808</v>
+        <v>619.8559841413785</v>
       </c>
       <c r="X19" t="n">
-        <v>619.8559841413808</v>
+        <v>446.1456822065411</v>
       </c>
       <c r="Y19" t="n">
-        <v>399.0634049978506</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089262</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277731</v>
+        <v>451.8458144277726</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176198</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1453.840519464783</v>
+        <v>1898.858917622691</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294612</v>
+        <v>2432.390822294615</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353394</v>
+        <v>2979.169639353397</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320233</v>
       </c>
       <c r="M21" t="n">
         <v>1241.476988454339</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008793</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5862,7 +5862,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>413.3805104860112</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>413.3805104860112</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5908,52 +5908,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442065</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927027</v>
+        <v>661.230648292702</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518528</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.51300886223</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931531</v>
+        <v>1674.827124689056</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258582</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.7880996267</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208131</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>999.1036114208131</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>771.1140605227957</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>595.0289753162509</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089256</v>
@@ -5987,19 +5987,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1898.858917622689</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294613</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353395</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232732</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
         <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6099,7 +6099,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>577.623130118754</v>
+        <v>402.5293200614553</v>
       </c>
       <c r="C25" t="n">
-        <v>433.2168941525034</v>
+        <v>402.5293200614553</v>
       </c>
       <c r="D25" t="n">
-        <v>433.2168941525034</v>
+        <v>402.5293200614553</v>
       </c>
       <c r="E25" t="n">
-        <v>433.2168941525034</v>
+        <v>402.5293200614553</v>
       </c>
       <c r="F25" t="n">
-        <v>433.2168941525034</v>
+        <v>402.5293200614553</v>
       </c>
       <c r="G25" t="n">
-        <v>290.0440044888787</v>
+        <v>259.3564303978306</v>
       </c>
       <c r="H25" t="n">
-        <v>168.3567646683928</v>
+        <v>137.6691905773448</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>164.7254679124493</v>
+        <v>164.7254679124494</v>
       </c>
       <c r="K25" t="n">
-        <v>392.7544518784449</v>
+        <v>392.7544518784453</v>
       </c>
       <c r="L25" t="n">
-        <v>733.3560513440603</v>
+        <v>733.3560513440609</v>
       </c>
       <c r="M25" t="n">
         <v>1101.554897960729</v>
@@ -6160,37 +6160,37 @@
         <v>1467.005075683713</v>
       </c>
       <c r="O25" t="n">
-        <v>1790.376475621245</v>
+        <v>1790.376475621246</v>
       </c>
       <c r="P25" t="n">
-        <v>2047.025777072024</v>
+        <v>2047.025777072025</v>
       </c>
       <c r="Q25" t="n">
-        <v>2148.677874241658</v>
+        <v>2148.677874241659</v>
       </c>
       <c r="R25" t="n">
-        <v>2148.677874241658</v>
+        <v>2083.377363960843</v>
       </c>
       <c r="S25" t="n">
-        <v>2091.315236806625</v>
+        <v>1916.221426749326</v>
       </c>
       <c r="T25" t="n">
-        <v>1894.078568337807</v>
+        <v>1718.984758280508</v>
       </c>
       <c r="U25" t="n">
-        <v>1629.505648425107</v>
+        <v>1454.411838367808</v>
       </c>
       <c r="V25" t="n">
-        <v>1399.351107180877</v>
+        <v>1224.257297123578</v>
       </c>
       <c r="W25" t="n">
-        <v>1134.463884105572</v>
+        <v>959.3700740482734</v>
       </c>
       <c r="X25" t="n">
-        <v>931.0042801692114</v>
+        <v>755.9104701119124</v>
       </c>
       <c r="Y25" t="n">
-        <v>734.7416479873375</v>
+        <v>559.6478379300387</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6312,10 +6312,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190825</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150022</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
@@ -6379,7 +6379,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
@@ -6406,28 +6406,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X28" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6549,7 +6549,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
         <v>1896.176478190825</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,10 +6643,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6655,16 +6655,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6786,10 +6786,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
         <v>1896.176478190825</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6895,7 +6895,7 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
         <v>1280.338681582389</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7099,7 +7099,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7260,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
         <v>1896.176478190825</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7363,16 +7363,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>924.8344286397182</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N42" t="n">
-        <v>1552.432392194325</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,22 +7582,22 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
@@ -7612,7 +7612,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
         <v>782.5512955656816</v>
@@ -7792,16 +7792,16 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7810,7 +7810,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,13 +7828,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838286</v>
@@ -8070,10 +8070,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8927,28 +8927,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>417.936692440791</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>288.0478149561074</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>48.65289230146766</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,13 +9401,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>219.3344627260144</v>
+        <v>344.7025836476881</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>344.7025836476847</v>
+        <v>344.7025836476824</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>5.684341886080801e-13</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>260.9220370264873</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,22 +22592,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.9231548684038</v>
       </c>
       <c r="U2" t="n">
-        <v>197.9614928052329</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,7 +23431,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>27.03095609775306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>76.4396608972589</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>16.14213605696679</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,10 +23905,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>120.4720686621345</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>53.73645647354815</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>105.0742887270152</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.26041899761543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D25" t="n">
         <v>124.3308255261726</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>30.38069835013747</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>64.64750517800761</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>108.6953667787192</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17505.95456586633</v>
+        <v>17505.95456586634</v>
       </c>
       <c r="C2" t="n">
         <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
         <v>19854.08934434915</v>
       </c>
       <c r="F2" t="n">
-        <v>19854.08934434915</v>
+        <v>19854.08934434916</v>
       </c>
       <c r="G2" t="n">
-        <v>19854.08934434915</v>
+        <v>19854.08934434916</v>
       </c>
       <c r="H2" t="n">
-        <v>19854.08934434915</v>
+        <v>19854.08934434916</v>
       </c>
       <c r="I2" t="n">
         <v>20201.4685987061</v>
@@ -26350,7 +26350,7 @@
         <v>20526.0442466071</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
         <v>20526.0442466071</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363284</v>
       </c>
       <c r="J3" t="n">
-        <v>376527.1335735916</v>
+        <v>376527.133573591</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123255.8861912282</v>
+        <v>123255.8861912283</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709181</v>
+        <v>21619.60799709192</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709192</v>
       </c>
       <c r="I4" t="n">
-        <v>29610.46726018536</v>
+        <v>29610.46726018534</v>
       </c>
       <c r="J4" t="n">
+        <v>12448.50789975162</v>
+      </c>
+      <c r="K4" t="n">
         <v>12448.5078997516</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12448.50789975161</v>
       </c>
       <c r="L4" t="n">
         <v>12448.5078997516</v>
@@ -26454,7 +26454,7 @@
         <v>12448.5078997516</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975159</v>
+        <v>12448.5078997516</v>
       </c>
       <c r="P4" t="n">
         <v>12448.50789975159</v>
@@ -26479,16 +26479,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>98425.10428372194</v>
+        <v>98425.10428372196</v>
       </c>
       <c r="J5" t="n">
         <v>103164.1158539154</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-778576.8889033158</v>
+        <v>-778878.8978713899</v>
       </c>
       <c r="C6" t="n">
         <v>-254539.6302092321</v>
@@ -26528,25 +26528,25 @@
         <v>-254539.6302092321</v>
       </c>
       <c r="E6" t="n">
-        <v>-825526.450899863</v>
+        <v>-825593.6463900888</v>
       </c>
       <c r="F6" t="n">
-        <v>-98149.03690645639</v>
+        <v>-98216.23239668216</v>
       </c>
       <c r="G6" t="n">
-        <v>-98149.03690645634</v>
+        <v>-98216.23239668219</v>
       </c>
       <c r="H6" t="n">
-        <v>-98149.03690645637</v>
+        <v>-98216.23239668219</v>
       </c>
       <c r="I6" t="n">
-        <v>-127261.820938833</v>
+        <v>-127294.2785036241</v>
       </c>
       <c r="J6" t="n">
-        <v>-471613.7130806515</v>
+        <v>-471613.7130806509</v>
       </c>
       <c r="K6" t="n">
-        <v>-95086.57950705991</v>
+        <v>-95086.57950705985</v>
       </c>
       <c r="L6" t="n">
         <v>-95086.5795070599</v>
@@ -26558,10 +26558,10 @@
         <v>-114514.2975006917</v>
       </c>
       <c r="O6" t="n">
-        <v>-95086.5795070599</v>
+        <v>-95086.57950705991</v>
       </c>
       <c r="P6" t="n">
-        <v>-95086.57950705988</v>
+        <v>-95086.57950705981</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>24.28464749203977</v>
+      </c>
+      <c r="J2" t="n">
+        <v>24.28464749203977</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203974</v>
       </c>
-      <c r="J2" t="n">
-        <v>24.28464749203974</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24.28464749203974</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,13 +26750,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
+        <v>1089.776700593297</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1089.776700593297</v>
+      </c>
+      <c r="I3" t="n">
         <v>1089.776700593299</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1089.776700593299</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="J3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.198799748375</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>70.40312333110143</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>6.525165489253965</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02416356212462</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,10 +27594,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>283.2991409305243</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>210.657203224819</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>137.611178347154</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6.162381606135284</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>95.75514455339187</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.82750184132328</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>24.37936745074319</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.358561997638116e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.733694752047692e-12</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H17" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844664</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003806</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623187</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574988</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095017</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099053</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746408</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781686</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806942</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502564</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798529</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752251</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353154</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138792</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233471</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837946</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970236</v>
+        <v>557.7086478970245</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002923</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987484</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238312</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898503</v>
+        <v>9.44815837589849</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742014</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297391</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702022</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316434</v>
+        <v>308.049502431643</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802167</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R19" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712208</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553033</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112289</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H20" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844664</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003806</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623187</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574988</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095017</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099053</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746408</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781686</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806942</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502564</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798529</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752251</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353154</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138792</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233471</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837919</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970273</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002923</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987484</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238312</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898503</v>
+        <v>9.44815837589849</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742014</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297391</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702022</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316434</v>
+        <v>308.049502431643</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802167</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R22" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712208</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553033</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112289</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837912</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>359.7096985496635</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33269,10 +33269,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N33" t="n">
-        <v>359.7096985496635</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,10 +33743,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N36" t="n">
-        <v>368.6279838366855</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33980,13 +33980,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,13 +34217,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>452.8027404478649</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,19 +34454,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>370.9642309107746</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451132</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
         <v>78.39423853789366</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>970.2385278537023</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>359.883616140786</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554007</v>
+        <v>625.2391015115074</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427828</v>
+        <v>455.5901143923315</v>
       </c>
       <c r="M17" t="n">
-        <v>587.5740081316947</v>
+        <v>538.9211158302261</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248959</v>
+        <v>552.3018354129108</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882195</v>
+        <v>888.8531821509639</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908547</v>
+        <v>720.560694390854</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636238</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222489</v>
+        <v>125.329618415207</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609564</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.402182134005</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013287</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004614</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525793</v>
+        <v>415.1124034525801</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859621</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306611</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701979</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934836</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675398</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226395</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451102</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789351</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407865</v>
+        <v>359.883616140786</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554007</v>
+        <v>661.3366991265648</v>
       </c>
       <c r="L20" t="n">
-        <v>674.9245771183467</v>
+        <v>800.2926980400196</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230595</v>
+        <v>538.9211158302261</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129108</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882185</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908547</v>
+        <v>720.560694390854</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636238</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152073</v>
+        <v>125.329618415207</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609564</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.402182134005</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013287</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004586</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525829</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859621</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306611</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701979</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934836</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675398</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226395</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451102</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789351</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L23" t="n">
-        <v>800.2926980400166</v>
+        <v>800.2926980400148</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.306104600458</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>69.86306410510593</v>
+        <v>69.86306410510605</v>
       </c>
       <c r="K25" t="n">
-        <v>230.3323070363593</v>
+        <v>230.3323070363594</v>
       </c>
       <c r="L25" t="n">
-        <v>344.0420196622378</v>
+        <v>344.042019662238</v>
       </c>
       <c r="M25" t="n">
-        <v>371.9180268855235</v>
+        <v>371.9180268855237</v>
       </c>
       <c r="N25" t="n">
-        <v>369.1415936595798</v>
+        <v>369.1415936595799</v>
       </c>
       <c r="O25" t="n">
-        <v>326.6377777146795</v>
+        <v>326.6377777146797</v>
       </c>
       <c r="P25" t="n">
-        <v>259.2417186371501</v>
+        <v>259.2417186371503</v>
       </c>
       <c r="Q25" t="n">
-        <v>102.6788860299334</v>
+        <v>102.6788860299335</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>228.3679864663302</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36762,10 +36762,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36917,10 +36917,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36996,10 +36996,10 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980851</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N33" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37303,13 +37303,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,10 +37391,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N36" t="n">
-        <v>237.2862717533522</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,13 +37552,13 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37628,13 +37628,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,13 +37865,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>310.2064960034205</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,16 +37938,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980851</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,19 +38102,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
